--- a/tests/evaluation_results_gdc_False_seedtest.xlsx
+++ b/tests/evaluation_results_gdc_False_seedtest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,721 +458,865 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>92.9583333333333</v>
+        <v>93.05233333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009689627902496141</v>
+        <v>0.007156970184527191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>92.15766666666669</v>
+        <v>92.57333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04394567353246829</v>
+        <v>0.05884065110297607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>91.64299999999997</v>
+        <v>92.31266666666664</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06763381797099352</v>
+        <v>0.0664797379323611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>3600</v>
       </c>
       <c r="C5" t="n">
-        <v>70.41200000000001</v>
+        <v>83.81233333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8317026712313319</v>
+        <v>0.455380305044281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>86400</v>
       </c>
       <c r="C6" t="n">
-        <v>29.979</v>
+        <v>57.104</v>
       </c>
       <c r="D6" t="n">
-        <v>1.216841129044106</v>
+        <v>1.354731461704988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2592000</v>
       </c>
       <c r="C7" t="n">
-        <v>14.43733333333333</v>
+        <v>26.95066666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>1.224036854928079</v>
+        <v>1.286234642495511</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>31104000</v>
       </c>
       <c r="C8" t="n">
-        <v>10.457</v>
+        <v>18.86433333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7432368397758546</v>
+        <v>0.8590214717275045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>93312000</v>
       </c>
       <c r="C9" t="n">
-        <v>10.19833333333333</v>
+        <v>17.29</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4428474781331478</v>
+        <v>1.151265969849423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>vanilla-Resnet18</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1000000000</v>
       </c>
       <c r="C10" t="n">
-        <v>10.37266666666667</v>
+        <v>14.88666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7219923052837119</v>
+        <v>1.931709663024499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>92.48066666666664</v>
+        <v>92.19433333333332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01152774431052887</v>
+        <v>0.01174260996920725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>91.52266666666668</v>
+        <v>91.91500000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06791825151525045</v>
+        <v>0.05578231499916939</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>90.77266666666667</v>
+        <v>91.76366666666668</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1077012328413898</v>
+        <v>0.05946894614465344</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3600</v>
       </c>
       <c r="C14" t="n">
-        <v>67.431</v>
+        <v>86.1703333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7352657116081679</v>
+        <v>0.2951777242423422</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>86400</v>
       </c>
       <c r="C15" t="n">
-        <v>28.93033333333334</v>
+        <v>67.71566666666668</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9791781701451938</v>
+        <v>1.120231176538525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2592000</v>
       </c>
       <c r="C16" t="n">
-        <v>15.54166666666666</v>
+        <v>36.08366666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>1.249965555080975</v>
+        <v>1.386406586186832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>31104000</v>
       </c>
       <c r="C17" t="n">
-        <v>10.809</v>
+        <v>21.471</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9836305200633009</v>
+        <v>1.081546269622032</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>93312000</v>
       </c>
       <c r="C18" t="n">
-        <v>10.301</v>
+        <v>17.545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5211420151935553</v>
+        <v>1.046147695117663</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1000000000</v>
       </c>
       <c r="C19" t="n">
-        <v>10.411</v>
+        <v>12.027</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5773811566028112</v>
+        <v>0.783084286651188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>90.825</v>
+        <v>92.30700000000003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01543804823587944</v>
+        <v>0.008225975119500264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>60</v>
       </c>
       <c r="C21" t="n">
-        <v>89.03700000000002</v>
+        <v>91.98866666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1363365932780577</v>
+        <v>0.05426683046658308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>87.959</v>
+        <v>91.80833333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1729999999999989</v>
+        <v>0.05532228805423292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>3600</v>
       </c>
       <c r="C23" t="n">
-        <v>62.23133333333333</v>
+        <v>86.419</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8559974039420656</v>
+        <v>0.304076196591137</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>86400</v>
       </c>
       <c r="C24" t="n">
-        <v>27.354</v>
+        <v>67.44966666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9471838962595027</v>
+        <v>1.148693412340976</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2592000</v>
       </c>
       <c r="C25" t="n">
-        <v>15.588</v>
+        <v>34.68266666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>1.319478179685692</v>
+        <v>1.316464794651021</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>31104000</v>
       </c>
       <c r="C26" t="n">
-        <v>10.62866666666667</v>
+        <v>21.20566666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5942150751668588</v>
+        <v>0.7053211246580449</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>93312000</v>
       </c>
       <c r="C27" t="n">
-        <v>10.28066666666667</v>
+        <v>18.415</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4484932800190236</v>
+        <v>0.6203587671662263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1000000000</v>
       </c>
       <c r="C28" t="n">
-        <v>10.27233333333333</v>
+        <v>14.284</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3376159882996593</v>
+        <v>1.06830894407938</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>85.41</v>
+        <v>92.414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01211060141639108</v>
+        <v>0.006633249580711195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>79.95733333333334</v>
+        <v>92.19066666666666</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1579226252174016</v>
+        <v>0.04596617113583599</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>77.818</v>
+        <v>91.985</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2507774577854504</v>
+        <v>0.06652067347825072</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>3600</v>
       </c>
       <c r="C32" t="n">
-        <v>45.83866666666666</v>
+        <v>85.92133333333332</v>
       </c>
       <c r="D32" t="n">
-        <v>1.059747559038892</v>
+        <v>0.4278842003263151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>86400</v>
       </c>
       <c r="C33" t="n">
-        <v>22.48366666666667</v>
+        <v>66.30766666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4668581749906018</v>
+        <v>1.418272854174714</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2592000</v>
       </c>
       <c r="C34" t="n">
-        <v>16.955</v>
+        <v>35.409</v>
       </c>
       <c r="D34" t="n">
-        <v>1.132709877535579</v>
+        <v>1.669459693034446</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>31104000</v>
       </c>
       <c r="C35" t="n">
-        <v>12.86</v>
+        <v>22.51766666666667</v>
       </c>
       <c r="D35" t="n">
-        <v>1.408320512762158</v>
+        <v>1.0738022267728</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>93312000</v>
       </c>
       <c r="C36" t="n">
-        <v>12.12133333333334</v>
+        <v>19.73966666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>1.045210451961177</v>
+        <v>0.9498823903808064</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1000000000</v>
       </c>
       <c r="C37" t="n">
-        <v>10.47833333333333</v>
+        <v>15.32766666666666</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5296544995455896</v>
+        <v>1.559178594288957</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>51.25266666666666</v>
+        <v>92.40333333333334</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01787611690372355</v>
+        <v>0.01043498389499815</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>44.87766666666667</v>
+        <v>92.18799999999997</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1655834801207204</v>
+        <v>0.04482558793070365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>42.78566666666669</v>
+        <v>92.04299999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2047060222747625</v>
+        <v>0.04824589792579997</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>3600</v>
       </c>
       <c r="C41" t="n">
-        <v>28.45100000000001</v>
+        <v>85.03199999999997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5575622536243524</v>
+        <v>0.4076223742632397</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>86400</v>
       </c>
       <c r="C42" t="n">
-        <v>19.35766666666667</v>
+        <v>60.48099999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6856174022165875</v>
+        <v>1.421087259812008</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2592000</v>
       </c>
       <c r="C43" t="n">
-        <v>15.70766666666666</v>
+        <v>27.98066666666667</v>
       </c>
       <c r="D43" t="n">
-        <v>1.164344403039277</v>
+        <v>1.34050720085927</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>31104000</v>
       </c>
       <c r="C44" t="n">
-        <v>12.88033333333333</v>
+        <v>18.57333333333333</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9834242330867295</v>
+        <v>0.6619684450351254</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>93312000</v>
       </c>
       <c r="C45" t="n">
-        <v>11.414</v>
+        <v>16.77966666666667</v>
       </c>
       <c r="D45" t="n">
-        <v>1.101270781113044</v>
+        <v>0.6068359653884147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1000000000</v>
       </c>
       <c r="C46" t="n">
-        <v>10.25633333333334</v>
+        <v>13.71333333333333</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3193272442008182</v>
+        <v>1.404915972180859</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>92.33366666666666</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.005467073155620522</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>60</v>
+      </c>
+      <c r="C48" t="n">
+        <v>92.12000000000002</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.06271629240742303</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>91.84333333333333</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.08030497424748266</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C50" t="n">
+        <v>86.20100000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2982096577912911</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>86400</v>
+      </c>
+      <c r="C51" t="n">
+        <v>66.92266666666667</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8403131691353065</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2592000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>33.648</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.10315124378603</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>31104000</v>
+      </c>
+      <c r="C53" t="n">
+        <v>18.737</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.000137157260609</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>93312000</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15.21466666666666</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.075935974964227</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10.86266666666667</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5638967596604502</v>
       </c>
     </row>
   </sheetData>

--- a/tests/evaluation_results_gdc_False_seedtest.xlsx
+++ b/tests/evaluation_results_gdc_False_seedtest.xlsx
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>93.05233333333334</v>
+        <v>93.074</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007156970184527191</v>
+        <v>0.006633249580711052</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>92.57333333333332</v>
+        <v>90.82266666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05884065110297607</v>
+        <v>0.06612782235102774</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>92.31266666666664</v>
+        <v>88.50900000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0664797379323611</v>
+        <v>0.0993428407083275</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>3600</v>
       </c>
       <c r="C5" t="n">
-        <v>83.81233333333334</v>
+        <v>27.17533333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.455380305044281</v>
+        <v>0.4713224892670508</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>86400</v>
       </c>
       <c r="C6" t="n">
-        <v>57.104</v>
+        <v>14.28166666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>1.354731461704988</v>
+        <v>1.318251577743119</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>2592000</v>
       </c>
       <c r="C7" t="n">
-        <v>26.95066666666667</v>
+        <v>10.451</v>
       </c>
       <c r="D7" t="n">
-        <v>1.286234642495511</v>
+        <v>0.6510829440247994</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>31104000</v>
       </c>
       <c r="C8" t="n">
-        <v>18.86433333333333</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8590214717275045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>93312000</v>
       </c>
       <c r="C9" t="n">
-        <v>17.29</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>1.151265969849423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>1000000000</v>
       </c>
       <c r="C10" t="n">
-        <v>14.88666666666667</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>1.931709663024499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>92.19433333333332</v>
+        <v>92.19866666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01174260996920725</v>
+        <v>0.01231079020841432</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>91.91500000000001</v>
+        <v>90.70666666666668</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05578231499916939</v>
+        <v>0.1022198067347472</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>91.76366666666668</v>
+        <v>89.08833333333335</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05946894614465344</v>
+        <v>0.1070539843049096</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>3600</v>
       </c>
       <c r="C14" t="n">
-        <v>86.1703333333333</v>
+        <v>36.69333333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2951777242423422</v>
+        <v>0.6655590799387304</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>86400</v>
       </c>
       <c r="C15" t="n">
-        <v>67.71566666666668</v>
+        <v>10.67166666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>1.120231176538525</v>
+        <v>0.1950911467892777</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>2592000</v>
       </c>
       <c r="C16" t="n">
-        <v>36.08366666666667</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>1.386406586186832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>31104000</v>
       </c>
       <c r="C17" t="n">
-        <v>21.471</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>1.081546269622032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>93312000</v>
       </c>
       <c r="C18" t="n">
-        <v>17.545</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>1.046147695117663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>1000000000</v>
       </c>
       <c r="C19" t="n">
-        <v>12.027</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.783084286651188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>92.30700000000003</v>
+        <v>92.31033333333335</v>
       </c>
       <c r="D20" t="n">
-        <v>0.008225975119500264</v>
+        <v>0.007063206700137794</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>60</v>
       </c>
       <c r="C21" t="n">
-        <v>91.98866666666667</v>
+        <v>90.62733333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05426683046658308</v>
+        <v>0.08473225805769259</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>91.80833333333334</v>
+        <v>89.37066666666666</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05532228805423292</v>
+        <v>0.09091876716180332</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>3600</v>
       </c>
       <c r="C23" t="n">
-        <v>86.419</v>
+        <v>35.72799999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.304076196591137</v>
+        <v>0.6635128735249483</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>86400</v>
       </c>
       <c r="C24" t="n">
-        <v>67.44966666666666</v>
+        <v>12.257</v>
       </c>
       <c r="D24" t="n">
-        <v>1.148693412340976</v>
+        <v>0.5936281102957757</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>2592000</v>
       </c>
       <c r="C25" t="n">
-        <v>34.68266666666667</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>1.316464794651021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -849,10 +849,10 @@
         <v>31104000</v>
       </c>
       <c r="C26" t="n">
-        <v>21.20566666666667</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7053211246580449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -865,10 +865,10 @@
         <v>93312000</v>
       </c>
       <c r="C27" t="n">
-        <v>18.415</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6203587671662263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -881,10 +881,10 @@
         <v>1000000000</v>
       </c>
       <c r="C28" t="n">
-        <v>14.284</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>1.06830894407938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>92.414</v>
+        <v>92.41599999999998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.006633249580711195</v>
+        <v>0.01113552872566029</v>
       </c>
     </row>
     <row r="30">
@@ -913,10 +913,10 @@
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>92.19066666666666</v>
+        <v>90.71633333333332</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04596617113583599</v>
+        <v>0.05564670300705642</v>
       </c>
     </row>
     <row r="31">
@@ -929,10 +929,10 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>91.985</v>
+        <v>89.30533333333331</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06652067347825072</v>
+        <v>0.0901381655509413</v>
       </c>
     </row>
     <row r="32">
@@ -945,10 +945,10 @@
         <v>3600</v>
       </c>
       <c r="C32" t="n">
-        <v>85.92133333333332</v>
+        <v>36.44966666666667</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4278842003263151</v>
+        <v>0.6419890099440098</v>
       </c>
     </row>
     <row r="33">
@@ -961,10 +961,10 @@
         <v>86400</v>
       </c>
       <c r="C33" t="n">
-        <v>66.30766666666666</v>
+        <v>14.53066666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>1.418272854174714</v>
+        <v>0.8837983681561963</v>
       </c>
     </row>
     <row r="34">
@@ -977,10 +977,10 @@
         <v>2592000</v>
       </c>
       <c r="C34" t="n">
-        <v>35.409</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>1.669459693034446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -993,10 +993,10 @@
         <v>31104000</v>
       </c>
       <c r="C35" t="n">
-        <v>22.51766666666667</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0738022267728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1009,10 +1009,10 @@
         <v>93312000</v>
       </c>
       <c r="C36" t="n">
-        <v>19.73966666666667</v>
+        <v>10.11966666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9498823903808064</v>
+        <v>0.4529053126451735</v>
       </c>
     </row>
     <row r="37">
@@ -1025,10 +1025,10 @@
         <v>1000000000</v>
       </c>
       <c r="C37" t="n">
-        <v>15.32766666666666</v>
+        <v>10.08566666666667</v>
       </c>
       <c r="D37" t="n">
-        <v>1.559178594288957</v>
+        <v>0.4384646191224808</v>
       </c>
     </row>
     <row r="38">
@@ -1041,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>92.40333333333334</v>
+        <v>92.44033333333331</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01043498389499815</v>
+        <v>0.01328742095199358</v>
       </c>
     </row>
     <row r="39">
@@ -1057,10 +1057,10 @@
         <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>92.18799999999997</v>
+        <v>90.75399999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04482558793070365</v>
+        <v>0.06258860386151172</v>
       </c>
     </row>
     <row r="40">
@@ -1073,10 +1073,10 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>92.04299999999999</v>
+        <v>88.9793333333333</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04824589792579997</v>
+        <v>0.1270677859342098</v>
       </c>
     </row>
     <row r="41">
@@ -1089,10 +1089,10 @@
         <v>3600</v>
       </c>
       <c r="C41" t="n">
-        <v>85.03199999999997</v>
+        <v>28.939</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4076223742632397</v>
+        <v>0.5035364932157349</v>
       </c>
     </row>
     <row r="42">
@@ -1105,10 +1105,10 @@
         <v>86400</v>
       </c>
       <c r="C42" t="n">
-        <v>60.48099999999999</v>
+        <v>11.597</v>
       </c>
       <c r="D42" t="n">
-        <v>1.421087259812008</v>
+        <v>0.5308116426756294</v>
       </c>
     </row>
     <row r="43">
@@ -1121,10 +1121,10 @@
         <v>2592000</v>
       </c>
       <c r="C43" t="n">
-        <v>27.98066666666667</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>1.34050720085927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1137,10 +1137,10 @@
         <v>31104000</v>
       </c>
       <c r="C44" t="n">
-        <v>18.57333333333333</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6619684450351254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1153,10 +1153,10 @@
         <v>93312000</v>
       </c>
       <c r="C45" t="n">
-        <v>16.77966666666667</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6068359653884147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1169,10 +1169,10 @@
         <v>1000000000</v>
       </c>
       <c r="C46" t="n">
-        <v>13.71333333333333</v>
+        <v>10.01333333333333</v>
       </c>
       <c r="D46" t="n">
-        <v>1.404915972180859</v>
+        <v>0.07180219742846013</v>
       </c>
     </row>
     <row r="47">
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>92.33366666666666</v>
+        <v>92.32000000000002</v>
       </c>
       <c r="D47" t="n">
-        <v>0.005467073155620522</v>
+        <v>0.00683130051063768</v>
       </c>
     </row>
     <row r="48">
@@ -1201,10 +1201,10 @@
         <v>60</v>
       </c>
       <c r="C48" t="n">
-        <v>92.12000000000002</v>
+        <v>91.018</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06271629240742303</v>
+        <v>0.05570158585414373</v>
       </c>
     </row>
     <row r="49">
@@ -1217,10 +1217,10 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>91.84333333333333</v>
+        <v>89.59899999999998</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08030497424748266</v>
+        <v>0.07934523720215782</v>
       </c>
     </row>
     <row r="50">
@@ -1233,10 +1233,10 @@
         <v>3600</v>
       </c>
       <c r="C50" t="n">
-        <v>86.20100000000001</v>
+        <v>35.70266666666667</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2982096577912911</v>
+        <v>0.5660443641820158</v>
       </c>
     </row>
     <row r="51">
@@ -1249,10 +1249,10 @@
         <v>86400</v>
       </c>
       <c r="C51" t="n">
-        <v>66.92266666666667</v>
+        <v>10.15466666666666</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8403131691353065</v>
+        <v>0.1005562308141847</v>
       </c>
     </row>
     <row r="52">
@@ -1265,10 +1265,10 @@
         <v>2592000</v>
       </c>
       <c r="C52" t="n">
-        <v>33.648</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>1.10315124378603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1281,10 +1281,10 @@
         <v>31104000</v>
       </c>
       <c r="C53" t="n">
-        <v>18.737</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>1.000137157260609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1297,10 +1297,10 @@
         <v>93312000</v>
       </c>
       <c r="C54" t="n">
-        <v>15.21466666666666</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>1.075935974964227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1313,10 +1313,10 @@
         <v>1000000000</v>
       </c>
       <c r="C55" t="n">
-        <v>10.86266666666667</v>
+        <v>9.984666666666666</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5638967596604502</v>
+        <v>0.07718952145351246</v>
       </c>
     </row>
   </sheetData>

--- a/tests/evaluation_results_gdc_False_seedtest.xlsx
+++ b/tests/evaluation_results_gdc_False_seedtest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,103 +458,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>93.074</v>
+        <v>91.32966666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006633249580711052</v>
+        <v>0.007520342781784607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>90.82266666666666</v>
+        <v>90.45766666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06612782235102774</v>
+        <v>0.08085721296760763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>88.50900000000001</v>
+        <v>89.804</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0993428407083275</v>
+        <v>0.1063202708800163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>3600</v>
       </c>
       <c r="C5" t="n">
-        <v>27.17533333333333</v>
+        <v>64.84099999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4713224892670508</v>
+        <v>1.006738463223361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>86400</v>
       </c>
       <c r="C6" t="n">
-        <v>14.28166666666667</v>
+        <v>23.71866666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>1.318251577743119</v>
+        <v>1.059319697835466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2592000</v>
       </c>
       <c r="C7" t="n">
-        <v>10.451</v>
+        <v>11.871</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6510829440247994</v>
+        <v>1.42493824427587</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -570,7 +570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -586,7 +586,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -602,247 +602,247 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>92.19866666666667</v>
+        <v>90.02766666666668</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01231079020841432</v>
+        <v>0.01453348623772577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>90.70666666666668</v>
+        <v>89.334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1022198067347472</v>
+        <v>0.08758234220815708</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>89.08833333333335</v>
+        <v>88.55866666666665</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1070539843049096</v>
+        <v>0.1271936406516554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>3600</v>
       </c>
       <c r="C14" t="n">
-        <v>36.69333333333334</v>
+        <v>66.86766666666668</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6655590799387304</v>
+        <v>0.9780684479569364</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>86400</v>
       </c>
       <c r="C15" t="n">
-        <v>10.67166666666667</v>
+        <v>30.96099999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1950911467892777</v>
+        <v>1.985336831203544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2592000</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>15.88866666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.430269749227591</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>31104000</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>10.91066666666666</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.348838842198067</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>93312000</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>10.35133333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.9186139317229822</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-15_Resnet18_p0.3</t>
+          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1000000000</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>10.74566666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.327447885564209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>92.31033333333335</v>
+        <v>91.54766666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>0.007063206700137794</v>
+        <v>0.009195409482759095</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>60</v>
       </c>
       <c r="C21" t="n">
-        <v>90.62733333333333</v>
+        <v>90.30800000000002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08473225805769259</v>
+        <v>0.06690291473471015</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>89.37066666666666</v>
+        <v>89.59766666666665</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09091876716180332</v>
+        <v>0.07544018970165832</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>3600</v>
       </c>
       <c r="C23" t="n">
-        <v>35.72799999999999</v>
+        <v>68.88733333333333</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6635128735249483</v>
+        <v>0.6592770451200475</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>86400</v>
       </c>
       <c r="C24" t="n">
-        <v>12.257</v>
+        <v>25.58133333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5936281102957757</v>
+        <v>0.8121154816622792</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2592000</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>10.565</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.5753708948727481</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -858,7 +858,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -874,7 +874,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-22_Resnet18_p0.4</t>
+          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -890,263 +890,263 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>92.41599999999998</v>
+        <v>90.36400000000002</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01113552872566029</v>
+        <v>0.01280624847486655</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>90.71633333333332</v>
+        <v>89.89466666666668</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05564670300705642</v>
+        <v>0.06681982407107025</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>89.30533333333331</v>
+        <v>89.43433333333334</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0901381655509413</v>
+        <v>0.07093110898767994</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>3600</v>
       </c>
       <c r="C32" t="n">
-        <v>36.44966666666667</v>
+        <v>68.11833333333334</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6419890099440098</v>
+        <v>0.8151404105360546</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>86400</v>
       </c>
       <c r="C33" t="n">
-        <v>14.53066666666666</v>
+        <v>24.571</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8837983681561963</v>
+        <v>1.577348724917859</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2592000</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>11.551</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.540145772321569</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>31104000</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>10.06133333333333</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.2021176774939677</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>93312000</v>
       </c>
       <c r="C36" t="n">
-        <v>10.11966666666667</v>
+        <v>10.00233333333333</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4529053126451735</v>
+        <v>0.007608474807008722</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-26_Resnet18_p0.5</t>
+          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1000000000</v>
       </c>
       <c r="C37" t="n">
-        <v>10.08566666666667</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4384646191224808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>92.44033333333331</v>
+        <v>92.59466666666665</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01328742095199358</v>
+        <v>0.009213516640727391</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>90.75399999999999</v>
+        <v>91.94166666666666</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06258860386151172</v>
+        <v>0.04844813951249535</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>88.9793333333333</v>
+        <v>91.50699999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1270677859342098</v>
+        <v>0.05502423708391244</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>3600</v>
       </c>
       <c r="C41" t="n">
-        <v>28.939</v>
+        <v>74.175</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5035364932157349</v>
+        <v>0.6807777415084402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>86400</v>
       </c>
       <c r="C42" t="n">
-        <v>11.597</v>
+        <v>32.40433333333333</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5308116426756294</v>
+        <v>0.9518462177380463</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2592000</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>14.99233333333333</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.003389865516999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>31104000</v>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>10.00633333333333</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.01888267871769142</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1162,161 +1162,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Test_2024-10-28_15-27_Resnet18_p0.6</t>
+          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1000000000</v>
       </c>
       <c r="C46" t="n">
-        <v>10.01333333333333</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07180219742846013</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>92.32000000000002</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.00683130051063768</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>60</v>
-      </c>
-      <c r="C48" t="n">
-        <v>91.018</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.05570158585414373</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>100</v>
-      </c>
-      <c r="C49" t="n">
-        <v>89.59899999999998</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.07934523720215782</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>3600</v>
-      </c>
-      <c r="C50" t="n">
-        <v>35.70266666666667</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5660443641820158</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>86400</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10.15466666666666</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.1005562308141847</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2592000</v>
-      </c>
-      <c r="C52" t="n">
-        <v>10</v>
-      </c>
-      <c r="D52" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>31104000</v>
-      </c>
-      <c r="C53" t="n">
-        <v>10</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>93312000</v>
-      </c>
-      <c r="C54" t="n">
-        <v>10</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Test_2024-10-28_15-32_Resnet18_p0.7</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="C55" t="n">
-        <v>9.984666666666666</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.07718952145351246</v>
       </c>
     </row>
   </sheetData>

--- a/tests/evaluation_results_gdc_False_seedtest.xlsx
+++ b/tests/evaluation_results_gdc_False_seedtest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,177 +458,289 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>93.06799999999998</v>
+        <v>91.59466666666665</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005999999999997385</v>
+        <v>0.006699917080749604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>92.29700000000001</v>
+        <v>90.49700000000003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03287856444554996</v>
+        <v>0.08087644898238143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>91.771</v>
+        <v>89.49033333333335</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03780211634287466</v>
+        <v>0.1233824226631254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>3600</v>
       </c>
       <c r="C5" t="n">
-        <v>72.75800000000001</v>
+        <v>55.922</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5961342130762135</v>
+        <v>1.224343089170678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>86400</v>
       </c>
       <c r="C6" t="n">
-        <v>32.92299999999999</v>
+        <v>19.43633333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9166575151058329</v>
+        <v>0.8081108972302146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2592000</v>
       </c>
       <c r="C7" t="n">
-        <v>17.966</v>
+        <v>10.00566666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9035839750681735</v>
+        <v>0.01085766498326823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>31104000</v>
       </c>
       <c r="C8" t="n">
-        <v>14.806</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1.498920945213589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>93312000</v>
       </c>
       <c r="C9" t="n">
-        <v>14.153</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>1.457635413949593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-26_Resnet18_p0.8</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1000000000</v>
       </c>
       <c r="C10" t="n">
-        <v>12.934</v>
+        <v>10.64766666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>1.880617983536264</v>
+        <v>1.531551899944048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10000000000</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>10.442</v>
+        <v>92.03633333333337</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6107339846447059</v>
+        <v>0.008749603165603808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>vanilla-Resnet18</t>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100000000000</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>91.11</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.06255664100104295</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>90.24033333333334</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.09662585345318037</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C14" t="n">
+        <v>60.63200000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9670553241671336</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>86400</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21.22666666666667</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.182537760731367</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2592000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.06666666666667</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.04323064756499604</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>31104000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.00166666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.005821416398857537</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>93312000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10.007</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03078419507907694</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Test_2025-04-01_20-33_Resnet18_p0.9</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10.13833333333333</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.512315549463631</v>
       </c>
     </row>
   </sheetData>
